--- a/data/trans_orig/IP07A18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A18-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E441BD2D-6973-45A9-ABD0-E8A391EC1D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1B8B700-7D02-4C7E-B45B-4066FE71AADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D6D2834F-9B4B-4C11-AACD-E02E32C8BA9A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4B466CC3-0AB4-47A4-BB0F-039A873DED4C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,277 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>3,35%</t>
@@ -100,39 +367,6 @@
     <t>6,29%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>4,72%</t>
   </si>
   <si>
@@ -160,39 +394,6 @@
     <t>8,25%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
@@ -217,135 +418,192 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
     <t>3,31%</t>
   </si>
   <si>
@@ -373,33 +631,6 @@
     <t>9,24%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
     <t>4,4%</t>
   </si>
   <si>
@@ -421,33 +652,6 @@
     <t>8,22%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
     <t>5,58%</t>
   </si>
   <si>
@@ -466,208 +670,58 @@
     <t>6,64%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>3,29%</t>
@@ -694,33 +748,6 @@
     <t>3,15%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
     <t>3,39%</t>
   </si>
   <si>
@@ -745,33 +772,6 @@
     <t>5,1%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
     <t>2,3%</t>
   </si>
   <si>
@@ -796,6 +796,258 @@
     <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
   </si>
   <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
     <t>6,12%</t>
   </si>
   <si>
@@ -817,27 +1069,6 @@
     <t>8,29%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
     <t>13,24%</t>
   </si>
   <si>
@@ -850,9 +1081,6 @@
     <t>7,76%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>10,48%</t>
   </si>
   <si>
@@ -862,33 +1090,6 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
     <t>3,43%</t>
   </si>
   <si>
@@ -910,130 +1111,175 @@
     <t>10,86%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>10,74%</t>
@@ -1051,33 +1297,9 @@
     <t>8,82%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
     <t>12,68%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
     <t>9,34%</t>
   </si>
   <si>
@@ -1105,33 +1327,6 @@
     <t>15,59%</t>
   </si>
   <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
     <t>6,8%</t>
   </si>
   <si>
@@ -1156,199 +1351,58 @@
     <t>11,36%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>9,85%</t>
@@ -1378,33 +1432,6 @@
     <t>11,37%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
     <t>6,57%</t>
   </si>
   <si>
@@ -1429,33 +1456,6 @@
     <t>11,57%</t>
   </si>
   <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
     <t>7,52%</t>
   </si>
   <si>
@@ -1483,6 +1483,258 @@
     <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2015 (Tasa respuesta: 47,08%)</t>
   </si>
   <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
     <t>10,34%</t>
   </si>
   <si>
@@ -1492,9 +1744,6 @@
     <t>7,41%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
     <t>8,88%</t>
   </si>
   <si>
@@ -1504,30 +1753,6 @@
     <t>12,63%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
     <t>5,2%</t>
   </si>
   <si>
@@ -1546,33 +1771,6 @@
     <t>11,22%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
     <t>4,93%</t>
   </si>
   <si>
@@ -1597,118 +1795,151 @@
     <t>5,69%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>7,26%</t>
@@ -1735,27 +1966,6 @@
     <t>15,44%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
     <t>4,17%</t>
   </si>
   <si>
@@ -1780,27 +1990,6 @@
     <t>7,58%</t>
   </si>
   <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
     <t>5,06%</t>
   </si>
   <si>
@@ -1822,193 +2011,49 @@
     <t>8,18%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>9,13%</t>
@@ -2032,30 +2077,6 @@
     <t>6,39%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
     <t>6,9%</t>
   </si>
   <si>
@@ -2081,27 +2102,6 @@
   </si>
   <si>
     <t>8,71%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
   </si>
   <si>
     <t>5,85%</t>
@@ -2511,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226691A9-EB6D-4261-BC71-C021D3798AF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9B36B3-8F16-45F0-9CAC-6BEC951F70E0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2629,10 +2629,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>3304</v>
+        <v>12023</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2644,10 +2644,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>4316</v>
+        <v>12852</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2659,10 +2659,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>7619</v>
+        <v>24874</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2680,10 +2680,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>11739</v>
+        <v>832</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2695,10 +2695,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>11735</v>
+        <v>2185</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2710,10 +2710,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>23474</v>
+        <v>3017</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2731,151 +2731,151 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>4652</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>10</v>
-      </c>
-      <c r="I6" s="7">
-        <v>6145</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>17</v>
-      </c>
-      <c r="N6" s="7">
-        <v>10797</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>76891</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>79438</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>156328</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2020</v>
+        <v>961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>2359</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>4379</v>
+        <v>961</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,102 +2884,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>98605</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>103993</v>
+        <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>202597</v>
+        <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>597</v>
+        <v>57066</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>1327</v>
+        <v>43065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="N10" s="7">
-        <v>1924</v>
+        <v>100131</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2994,13 @@
         <v>5452</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3009,13 +3009,13 @@
         <v>2738</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -3024,13 +3024,13 @@
         <v>8190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,106 +3039,106 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>597</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
-        <v>1406</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1327</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>1406</v>
+        <v>1924</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>57066</v>
+        <v>1406</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>43065</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>100131</v>
+        <v>1406</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -3147,13 +3147,13 @@
         <v>2478</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3162,13 +3162,13 @@
         <v>1849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3177,13 +3177,13 @@
         <v>4327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3198,13 @@
         <v>66999</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -3213,13 +3213,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -3228,66 +3228,66 @@
         <v>115978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="D16" s="7">
-        <v>3259</v>
+        <v>76891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="I16" s="7">
-        <v>7410</v>
+        <v>79438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="N16" s="7">
-        <v>10669</v>
+        <v>156328</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,49 +3296,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>11035</v>
+        <v>11739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>15834</v>
+        <v>11735</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>26870</v>
+        <v>23474</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,151 +3347,151 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>4333</v>
+        <v>3304</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>5083</v>
+        <v>4316</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="7">
+        <v>12</v>
+      </c>
+      <c r="N18" s="7">
+        <v>7619</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="7">
-        <v>13</v>
-      </c>
-      <c r="N18" s="7">
-        <v>9416</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>74417</v>
+        <v>4652</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>59920</v>
+        <v>6145</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="N19" s="7">
-        <v>134338</v>
+        <v>10797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>5502</v>
+        <v>2020</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>1440</v>
+        <v>2359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>6942</v>
+        <v>4379</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,102 +3500,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D21" s="7">
-        <v>98547</v>
+        <v>98605</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
-        <v>89687</v>
+        <v>103993</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="N21" s="7">
-        <v>188234</v>
+        <v>202597</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>47935</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="7">
+        <v>69</v>
+      </c>
+      <c r="I22" s="7">
+        <v>42647</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="7">
         <v>143</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>90581</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,49 +3604,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7">
-        <v>832</v>
+        <v>11131</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I23" s="7">
-        <v>2185</v>
+        <v>10501</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="N23" s="7">
-        <v>3017</v>
+        <v>21632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,151 +3655,151 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>4177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>3507</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>7684</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>12023</v>
+        <v>1280</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1768</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="7">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7">
-        <v>12852</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3048</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M25" s="7">
-        <v>32</v>
-      </c>
-      <c r="N25" s="7">
-        <v>24874</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>961</v>
+        <v>1773</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2634</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>961</v>
+        <v>4406</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,102 +3808,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>66295</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>15037</v>
+        <v>61057</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="N27" s="7">
-        <v>28853</v>
+        <v>127351</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="D28" s="7">
-        <v>4177</v>
+        <v>74417</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I28" s="7">
-        <v>3507</v>
+        <v>59920</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="N28" s="7">
-        <v>7684</v>
+        <v>134338</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,49 +3912,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="7">
-        <v>11131</v>
+        <v>11035</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" s="7">
-        <v>10501</v>
+        <v>15834</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>36</v>
       </c>
       <c r="N29" s="7">
-        <v>21632</v>
+        <v>26870</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,151 +3963,151 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>1280</v>
+        <v>3259</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H30" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I30" s="7">
-        <v>1768</v>
+        <v>7410</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M30" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N30" s="7">
-        <v>3048</v>
+        <v>10669</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D31" s="7">
-        <v>47935</v>
+        <v>4333</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="7">
+        <v>7</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5083</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H31" s="7">
-        <v>69</v>
-      </c>
-      <c r="I31" s="7">
-        <v>42647</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="K31" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="N31" s="7">
-        <v>90581</v>
+        <v>9416</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D32" s="7">
-        <v>1773</v>
+        <v>5502</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>2634</v>
+        <v>1440</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" s="7">
+        <v>10</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6942</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M32" s="7">
-        <v>7</v>
-      </c>
-      <c r="N32" s="7">
-        <v>4406</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,49 +4116,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D33" s="7">
-        <v>66295</v>
+        <v>98547</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>61057</v>
+        <v>89687</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="N33" s="7">
-        <v>127351</v>
+        <v>188234</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,10 +4169,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>18</v>
+        <v>402</v>
       </c>
       <c r="D34" s="7">
-        <v>11337</v>
+        <v>268331</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>210</v>
@@ -4184,10 +4184,10 @@
         <v>212</v>
       </c>
       <c r="H34" s="7">
-        <v>25</v>
+        <v>351</v>
       </c>
       <c r="I34" s="7">
-        <v>16559</v>
+        <v>237921</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>213</v>
@@ -4199,10 +4199,10 @@
         <v>215</v>
       </c>
       <c r="M34" s="7">
-        <v>43</v>
+        <v>753</v>
       </c>
       <c r="N34" s="7">
-        <v>27897</v>
+        <v>506252</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>216</v>
@@ -4211,7 +4211,7 @@
         <v>217</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4226,13 @@
         <v>40189</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H35" s="7">
         <v>64</v>
@@ -4241,13 +4241,13 @@
         <v>42993</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M35" s="7">
         <v>125</v>
@@ -4256,13 +4256,13 @@
         <v>83183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,91 +4271,91 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="7">
-        <v>11670</v>
+        <v>11337</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H36" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I36" s="7">
-        <v>12996</v>
+        <v>16559</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M36" s="7">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N36" s="7">
-        <v>24666</v>
+        <v>27897</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
-        <v>402</v>
+        <v>17</v>
       </c>
       <c r="D37" s="7">
-        <v>268331</v>
+        <v>11670</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="I37" s="7">
-        <v>237921</v>
+        <v>12996</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>240</v>
       </c>
       <c r="M37" s="7">
-        <v>753</v>
+        <v>37</v>
       </c>
       <c r="N37" s="7">
-        <v>506252</v>
+        <v>24666</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>241</v>
@@ -4370,7 +4370,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7">
         <v>19</v>
@@ -4379,7 +4379,7 @@
         <v>12734</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>244</v>
@@ -4397,7 +4397,7 @@
         <v>246</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>247</v>
@@ -4430,13 +4430,13 @@
         <v>344262</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>473</v>
@@ -4445,13 +4445,13 @@
         <v>318752</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>990</v>
@@ -4460,13 +4460,13 @@
         <v>663014</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4487,7 +4487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C41B64-6F11-4E50-B787-705376483670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8079A9A2-068A-4336-AFE3-C4308A84AB9D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4605,25 +4605,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>5943</v>
+        <v>12777</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>4697</v>
+        <v>9388</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>254</v>
@@ -4632,22 +4632,22 @@
         <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>10640</v>
+        <v>22165</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,40 +4656,40 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>8585</v>
+        <v>1713</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>10904</v>
+        <v>870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>263</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>19489</v>
+        <v>2583</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>264</v>
@@ -4698,7 +4698,7 @@
         <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,151 +4707,151 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>12872</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>925</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H6" s="7">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7639</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>925</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M6" s="7">
-        <v>32</v>
-      </c>
-      <c r="N6" s="7">
-        <v>20511</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>63024</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H7" s="7">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>67922</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>130946</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>6766</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>7280</v>
+        <v>760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M8" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>14045</v>
+        <v>760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,102 +4860,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>97190</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>98442</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>195632</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>6403</v>
+        <v>32633</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>5426</v>
+        <v>33872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="N10" s="7">
-        <v>11829</v>
+        <v>66504</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4970,13 @@
         <v>8769</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4985,13 +4985,13 @@
         <v>6094</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5000,13 +5000,13 @@
         <v>14863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,106 +5015,106 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>3207</v>
+        <v>6403</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>6260</v>
+        <v>5426</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M12" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>9467</v>
+        <v>11829</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>32633</v>
+        <v>3207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>33872</v>
+        <v>6260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>66504</v>
+        <v>9467</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>10</v>
@@ -5123,13 +5123,13 @@
         <v>6475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5138,13 +5138,13 @@
         <v>2031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -5153,13 +5153,13 @@
         <v>8506</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5174,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -5189,13 +5189,13 @@
         <v>53683</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>159</v>
@@ -5204,66 +5204,66 @@
         <v>111169</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7">
-        <v>10004</v>
+        <v>63024</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="I16" s="7">
-        <v>6260</v>
+        <v>67922</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="N16" s="7">
-        <v>16264</v>
+        <v>130946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,49 +5272,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>10483</v>
+        <v>8585</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>13026</v>
+        <v>10904</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N17" s="7">
-        <v>23509</v>
+        <v>19489</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>345</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,151 +5323,151 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>8700</v>
+        <v>5943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>347</v>
+        <v>151</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>11758</v>
+        <v>4697</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="M18" s="7">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>20458</v>
+        <v>10640</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>57606</v>
+        <v>12872</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H19" s="7">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>53958</v>
+        <v>7639</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="N19" s="7">
-        <v>111564</v>
+        <v>20511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>6336</v>
+        <v>6766</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>37</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I20" s="7">
-        <v>6326</v>
+        <v>7280</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>12662</v>
+        <v>14045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>370</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,102 +5476,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7">
-        <v>93130</v>
+        <v>97190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="I21" s="7">
-        <v>91327</v>
+        <v>98442</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="N21" s="7">
-        <v>184457</v>
+        <v>195632</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>41823</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I22" s="7">
-        <v>925</v>
+        <v>37411</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>62</v>
+        <v>361</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="N22" s="7">
-        <v>925</v>
+        <v>79234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,49 +5580,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>1713</v>
+        <v>6340</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>367</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7">
-        <v>870</v>
+        <v>7225</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>62</v>
+        <v>369</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N23" s="7">
-        <v>2583</v>
+        <v>13565</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,151 +5631,151 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>10283</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>374</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>9090</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>377</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>19372</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>62</v>
+        <v>379</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>12777</v>
+        <v>5171</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H25" s="7">
+        <v>9</v>
+      </c>
+      <c r="I25" s="7">
+        <v>6107</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>18</v>
+      </c>
+      <c r="N25" s="7">
+        <v>11278</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="7">
-        <v>11</v>
-      </c>
-      <c r="I25" s="7">
-        <v>9388</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="M25" s="7">
-        <v>25</v>
-      </c>
-      <c r="N25" s="7">
-        <v>22165</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>5327</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>62</v>
+        <v>389</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I26" s="7">
-        <v>760</v>
+        <v>6692</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>394</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N26" s="7">
-        <v>760</v>
+        <v>12020</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>395</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,102 +5784,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>68944</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>66524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>135468</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D28" s="7">
-        <v>10283</v>
+        <v>57606</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H28" s="7">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="I28" s="7">
-        <v>9090</v>
+        <v>53958</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>329</v>
+        <v>402</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M28" s="7">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N28" s="7">
-        <v>19372</v>
+        <v>111564</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>97</v>
+        <v>405</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,49 +5888,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" s="7">
-        <v>6340</v>
+        <v>10483</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H29" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I29" s="7">
-        <v>7225</v>
+        <v>13026</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>289</v>
+        <v>408</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>337</v>
+        <v>409</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M29" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N29" s="7">
-        <v>13565</v>
+        <v>23509</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,142 +5939,142 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="7">
-        <v>5171</v>
+        <v>10004</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H30" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>6107</v>
+        <v>6260</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>414</v>
+        <v>236</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M30" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N30" s="7">
-        <v>11278</v>
+        <v>16264</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D31" s="7">
-        <v>41823</v>
+        <v>8700</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H31" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I31" s="7">
-        <v>37411</v>
+        <v>11758</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M31" s="7">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="N31" s="7">
-        <v>79234</v>
+        <v>20458</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
         <v>8</v>
       </c>
       <c r="D32" s="7">
-        <v>5327</v>
+        <v>6336</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H32" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I32" s="7">
-        <v>6692</v>
+        <v>6326</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="M32" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N32" s="7">
-        <v>12020</v>
+        <v>12662</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>434</v>
@@ -6092,49 +6092,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>68944</v>
+        <v>93130</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>66524</v>
+        <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="N33" s="7">
-        <v>135468</v>
+        <v>184457</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,10 +6145,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="D34" s="7">
-        <v>32633</v>
+        <v>207863</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>437</v>
@@ -6160,10 +6160,10 @@
         <v>439</v>
       </c>
       <c r="H34" s="7">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="I34" s="7">
-        <v>26398</v>
+        <v>202550</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>440</v>
@@ -6175,10 +6175,10 @@
         <v>442</v>
       </c>
       <c r="M34" s="7">
-        <v>85</v>
+        <v>588</v>
       </c>
       <c r="N34" s="7">
-        <v>59032</v>
+        <v>410413</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>443</v>
@@ -6247,64 +6247,64 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D36" s="7">
-        <v>29951</v>
+        <v>32633</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H36" s="7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I36" s="7">
-        <v>31763</v>
+        <v>26398</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M36" s="7">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N36" s="7">
-        <v>61714</v>
+        <v>59032</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="D37" s="7">
-        <v>207863</v>
+        <v>29951</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>464</v>
@@ -6313,10 +6313,10 @@
         <v>465</v>
       </c>
       <c r="H37" s="7">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="I37" s="7">
-        <v>202550</v>
+        <v>31763</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>466</v>
@@ -6328,10 +6328,10 @@
         <v>468</v>
       </c>
       <c r="M37" s="7">
-        <v>588</v>
+        <v>90</v>
       </c>
       <c r="N37" s="7">
-        <v>410413</v>
+        <v>61714</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>469</v>
@@ -6346,7 +6346,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7">
         <v>36</v>
@@ -6391,7 +6391,7 @@
         <v>479</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6406,13 @@
         <v>331241</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>457</v>
@@ -6421,13 +6421,13 @@
         <v>321919</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>939</v>
@@ -6436,13 +6436,13 @@
         <v>653160</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -6463,7 +6463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC6A77-6EE5-4870-9CAA-931FD186EBE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70A343E-4DD5-4061-8821-017029B60C34}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6581,49 +6581,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>10996</v>
+        <v>8649</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>481</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>7841</v>
+        <v>11076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>485</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>18837</v>
+        <v>19725</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,49 +6632,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>9782</v>
+        <v>1596</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>404</v>
+        <v>267</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>488</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>489</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>10471</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1596</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="M5" s="7">
-        <v>31</v>
-      </c>
-      <c r="N5" s="7">
-        <v>20253</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,151 +6683,151 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>5525</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1023</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1023</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H6" s="7">
-        <v>18</v>
-      </c>
-      <c r="I6" s="7">
-        <v>11368</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="M6" s="7">
-        <v>26</v>
-      </c>
-      <c r="N6" s="7">
-        <v>16893</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>74763</v>
+        <v>1390</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>804</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2194</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="H7" s="7">
-        <v>112</v>
-      </c>
-      <c r="I7" s="7">
-        <v>74099</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="M7" s="7">
-        <v>219</v>
-      </c>
-      <c r="N7" s="7">
-        <v>148862</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>5242</v>
+        <v>2679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>2050</v>
+        <v>1023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>7292</v>
+        <v>3702</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,102 +6836,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>106307</v>
+        <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>105830</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>212137</v>
+        <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>3583</v>
+        <v>41689</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>520</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>2498</v>
+        <v>40115</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>511</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>6081</v>
+        <v>81804</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6946,13 @@
         <v>5019</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -6961,13 +6961,13 @@
         <v>6870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -6979,10 +6979,10 @@
         <v>474</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,106 +6991,106 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>5311</v>
+        <v>3583</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>4084</v>
+        <v>2498</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M12" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>9395</v>
+        <v>6081</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>540</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>41689</v>
+        <v>5311</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>533</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>40115</v>
+        <v>4084</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>543</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="M13" s="7">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>81804</v>
+        <v>9395</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
@@ -7099,13 +7099,13 @@
         <v>3712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7114,13 +7114,13 @@
         <v>3347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -7129,13 +7129,13 @@
         <v>7059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7150,13 @@
         <v>59313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>81</v>
@@ -7165,13 +7165,13 @@
         <v>56915</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -7180,66 +7180,66 @@
         <v>116228</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="D16" s="7">
-        <v>12239</v>
+        <v>74763</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="I16" s="7">
-        <v>10817</v>
+        <v>74099</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="M16" s="7">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="N16" s="7">
-        <v>23056</v>
+        <v>148862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,49 +7248,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>15252</v>
+        <v>9782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>565</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>437</v>
+        <v>557</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>18015</v>
+        <v>10471</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>560</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N17" s="7">
-        <v>33267</v>
+        <v>20253</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,151 +7299,151 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>4230</v>
+        <v>10996</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>573</v>
+        <v>459</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>4789</v>
+        <v>7841</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>576</v>
+        <v>241</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="M18" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N18" s="7">
-        <v>9020</v>
+        <v>18837</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>244</v>
+        <v>569</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>64576</v>
+        <v>5525</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>581</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>582</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>68515</v>
+        <v>11368</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>583</v>
+        <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="M19" s="7">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>133091</v>
+        <v>16893</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>5132</v>
+        <v>5242</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>5455</v>
+        <v>2050</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>66</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="M20" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>10588</v>
+        <v>7292</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,102 +7452,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D21" s="7">
-        <v>101429</v>
+        <v>106307</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="I21" s="7">
-        <v>107592</v>
+        <v>105830</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="N21" s="7">
-        <v>209021</v>
+        <v>212137</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>49197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>585</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="I22" s="7">
-        <v>1023</v>
+        <v>57267</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>478</v>
+        <v>588</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>62</v>
+        <v>589</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="N22" s="7">
-        <v>1023</v>
+        <v>106464</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>62</v>
+        <v>592</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,49 +7556,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D23" s="7">
-        <v>1596</v>
+        <v>9730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>594</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="H23" s="7">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4533</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>20</v>
+      </c>
+      <c r="N23" s="7">
+        <v>14263</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="M23" s="7">
-        <v>2</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1596</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,151 +7607,151 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>1390</v>
+        <v>5926</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3123</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>804</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>605</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>2194</v>
+        <v>9048</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>215</v>
+        <v>523</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>606</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>607</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>8649</v>
+        <v>8292</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5082</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="H25" s="7">
-        <v>12</v>
-      </c>
-      <c r="I25" s="7">
-        <v>11076</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>18</v>
+      </c>
+      <c r="N25" s="7">
+        <v>13374</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="M25" s="7">
-        <v>22</v>
-      </c>
-      <c r="N25" s="7">
-        <v>19725</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4211</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
-        <v>2679</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>1705</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="7">
+        <v>9</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5916</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1023</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="M26" s="7">
-        <v>4</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3702</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,102 +7760,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D27" s="7">
-        <v>14314</v>
+        <v>77355</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="N27" s="7">
-        <v>28240</v>
+        <v>149065</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D28" s="7">
-        <v>5926</v>
+        <v>64576</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>90</v>
+      </c>
+      <c r="I28" s="7">
+        <v>68515</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="H28" s="7">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3123</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>176</v>
+      </c>
+      <c r="N28" s="7">
+        <v>133091</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="M28" s="7">
-        <v>13</v>
-      </c>
-      <c r="N28" s="7">
-        <v>9048</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>493</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,46 +7864,46 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D29" s="7">
-        <v>9730</v>
+        <v>15252</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>627</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>364</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>628</v>
       </c>
       <c r="H29" s="7">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I29" s="7">
-        <v>4533</v>
+        <v>18015</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>629</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>44</v>
+      </c>
+      <c r="N29" s="7">
+        <v>33267</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="M29" s="7">
-        <v>20</v>
-      </c>
-      <c r="N29" s="7">
-        <v>14263</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>633</v>
@@ -7915,46 +7915,46 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D30" s="7">
-        <v>8292</v>
+        <v>12239</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10817</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="H30" s="7">
-        <v>7</v>
-      </c>
-      <c r="I30" s="7">
-        <v>5082</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>32</v>
+      </c>
+      <c r="N30" s="7">
+        <v>23056</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="M30" s="7">
-        <v>18</v>
-      </c>
-      <c r="N30" s="7">
-        <v>13374</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>641</v>
@@ -7963,13 +7963,13 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D31" s="7">
-        <v>49197</v>
+        <v>4230</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>642</v>
@@ -7981,10 +7981,10 @@
         <v>644</v>
       </c>
       <c r="H31" s="7">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="I31" s="7">
-        <v>57267</v>
+        <v>4789</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>645</v>
@@ -7996,34 +7996,34 @@
         <v>647</v>
       </c>
       <c r="M31" s="7">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="N31" s="7">
-        <v>106464</v>
+        <v>9020</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>648</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="7">
-        <v>4211</v>
+        <v>5132</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>256</v>
+        <v>650</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>651</v>
@@ -8032,28 +8032,28 @@
         <v>652</v>
       </c>
       <c r="H32" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I32" s="7">
-        <v>1705</v>
+        <v>5455</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>550</v>
+        <v>653</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="M32" s="7">
+        <v>14</v>
+      </c>
+      <c r="N32" s="7">
+        <v>10588</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M32" s="7">
-        <v>9</v>
-      </c>
-      <c r="N32" s="7">
-        <v>5916</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>654</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>655</v>
@@ -8068,49 +8068,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D33" s="7">
-        <v>77355</v>
+        <v>101429</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
-        <v>71710</v>
+        <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="N33" s="7">
-        <v>149065</v>
+        <v>209021</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,49 +8121,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="D34" s="7">
-        <v>32743</v>
+        <v>238874</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>657</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H34" s="7">
+        <v>359</v>
+      </c>
+      <c r="I34" s="7">
+        <v>251072</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H34" s="7">
-        <v>37</v>
-      </c>
-      <c r="I34" s="7">
-        <v>25302</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>685</v>
+      </c>
+      <c r="N34" s="7">
+        <v>489946</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="M34" s="7">
-        <v>82</v>
-      </c>
-      <c r="N34" s="7">
-        <v>58045</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,7 +8208,7 @@
         <v>81267</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>670</v>
@@ -8223,10 +8223,10 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D36" s="7">
-        <v>24748</v>
+        <v>32743</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>672</v>
@@ -8235,64 +8235,64 @@
         <v>673</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H36" s="7">
+        <v>37</v>
+      </c>
+      <c r="I36" s="7">
+        <v>25302</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="H36" s="7">
-        <v>38</v>
-      </c>
-      <c r="I36" s="7">
-        <v>26128</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>82</v>
+      </c>
+      <c r="N36" s="7">
+        <v>58045</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="M36" s="7">
-        <v>72</v>
-      </c>
-      <c r="N36" s="7">
-        <v>50876</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>679</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>680</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
-        <v>326</v>
+        <v>34</v>
       </c>
       <c r="D37" s="7">
-        <v>238874</v>
+        <v>24748</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>541</v>
-      </c>
       <c r="H37" s="7">
-        <v>359</v>
+        <v>38</v>
       </c>
       <c r="I37" s="7">
-        <v>251072</v>
+        <v>26128</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>682</v>
@@ -8304,10 +8304,10 @@
         <v>684</v>
       </c>
       <c r="M37" s="7">
-        <v>685</v>
+        <v>72</v>
       </c>
       <c r="N37" s="7">
-        <v>489946</v>
+        <v>50876</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>685</v>
@@ -8322,7 +8322,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7">
         <v>29</v>
@@ -8337,7 +8337,7 @@
         <v>689</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="H38" s="7">
         <v>19</v>
@@ -8352,7 +8352,7 @@
         <v>691</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="M38" s="7">
         <v>48</v>
@@ -8364,7 +8364,7 @@
         <v>692</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>693</v>
@@ -8382,13 +8382,13 @@
         <v>358719</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>509</v>
@@ -8397,13 +8397,13 @@
         <v>355972</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>1001</v>
@@ -8412,13 +8412,13 @@
         <v>714691</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A18-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3DF0052-C781-4FD1-8B46-1FBB53D0D069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{876BDB73-531B-4E6B-B450-C8BDB294D10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D523208-6DE3-4628-B6EA-2E3F1D86D508}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A5AA9ACB-6C38-41B9-ACEB-752DB4F6182A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="688">
   <si>
     <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2007 (Tasa respuesta: 47,05%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,15%</t>
+    <t>33,48%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>3,33%</t>
   </si>
   <si>
-    <t>13,61%</t>
+    <t>16,79%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -112,7 +112,7 @@
     <t>6,02%</t>
   </si>
   <si>
-    <t>31,0%</t>
+    <t>28,95%</t>
   </si>
   <si>
     <t>14,53%</t>
@@ -121,1954 +121,1987 @@
     <t>4,04%</t>
   </si>
   <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>63,77%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2016 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2015 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>13,53%</t>
+    <t>13,38%</t>
   </si>
   <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>68,55%</t>
   </si>
   <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +2513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4261271-65BE-4A79-B277-8E61266AA530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4780884-9EDF-4167-B930-4488C8538693}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3307,7 +3340,7 @@
         <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3355,13 @@
         <v>3304</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -3337,13 +3370,13 @@
         <v>4316</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -3352,13 +3385,13 @@
         <v>7619</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3406,13 @@
         <v>11739</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3388,13 +3421,13 @@
         <v>11735</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -3403,13 +3436,13 @@
         <v>23474</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3457,13 @@
         <v>76891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>124</v>
@@ -3439,13 +3472,13 @@
         <v>79438</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>241</v>
@@ -3454,13 +3487,13 @@
         <v>156328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,7 +3549,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3528,13 +3561,13 @@
         <v>1773</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3543,13 +3576,13 @@
         <v>2634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -3558,13 +3591,13 @@
         <v>4406</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3612,13 @@
         <v>1280</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3594,13 +3627,13 @@
         <v>1768</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3609,13 +3642,13 @@
         <v>3048</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3663,13 @@
         <v>4177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3645,13 +3678,13 @@
         <v>3507</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -3660,7 +3693,7 @@
         <v>7684</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>150</v>
@@ -3681,13 +3714,13 @@
         <v>11131</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3696,13 +3729,13 @@
         <v>10501</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -3711,13 +3744,13 @@
         <v>21632</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3765,13 @@
         <v>47935</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>69</v>
@@ -3747,13 +3780,13 @@
         <v>42647</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
@@ -3762,13 +3795,13 @@
         <v>90581</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,7 +3857,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3836,13 +3869,13 @@
         <v>5502</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3851,13 +3884,13 @@
         <v>1440</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3866,13 +3899,13 @@
         <v>6942</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3920,13 @@
         <v>4333</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -3902,13 +3935,13 @@
         <v>5083</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -3917,13 +3950,13 @@
         <v>9416</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3971,13 @@
         <v>3259</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -3953,13 +3986,13 @@
         <v>7410</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -3968,13 +4001,13 @@
         <v>10669</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +4022,13 @@
         <v>11035</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -4004,13 +4037,13 @@
         <v>15834</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M31" s="7">
         <v>36</v>
@@ -4019,13 +4052,13 @@
         <v>26870</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4073,13 @@
         <v>74417</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>78</v>
@@ -4055,13 +4088,13 @@
         <v>59920</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>186</v>
@@ -4070,13 +4103,13 @@
         <v>134338</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,10 +4180,10 @@
         <v>43</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -4159,13 +4192,13 @@
         <v>8282</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="M34" s="7">
         <v>32</v>
@@ -4174,13 +4207,13 @@
         <v>21016</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4228,13 @@
         <v>11670</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -4210,13 +4243,13 @@
         <v>12996</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="M35" s="7">
         <v>37</v>
@@ -4225,13 +4258,13 @@
         <v>24666</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,10 +4279,10 @@
         <v>11337</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>227</v>
@@ -4279,10 +4312,10 @@
         <v>231</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4330,13 @@
         <v>40189</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>64</v>
@@ -4312,13 +4345,13 @@
         <v>42993</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="M37" s="7">
         <v>125</v>
@@ -4327,13 +4360,13 @@
         <v>83183</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4381,13 @@
         <v>268331</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>351</v>
@@ -4363,13 +4396,13 @@
         <v>237921</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M38" s="7">
         <v>753</v>
@@ -4378,13 +4411,13 @@
         <v>506252</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,7 +4473,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4461,7 +4494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C12F3A-8B25-4886-9416-057A7213C4A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A09873-6CD3-4AC1-A1B8-118578EFAC2F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4478,7 +4511,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4591,7 +4624,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4600,13 +4633,13 @@
         <v>760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4615,13 +4648,13 @@
         <v>760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,7 +4675,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4657,7 +4690,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4672,7 +4705,7 @@
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,7 +4726,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4702,13 +4735,13 @@
         <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4717,13 +4750,13 @@
         <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4771,13 @@
         <v>1713</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4753,13 +4786,13 @@
         <v>870</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4768,13 +4801,13 @@
         <v>2583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,10 +4822,10 @@
         <v>12777</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>34</v>
@@ -4804,13 +4837,13 @@
         <v>9388</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -4819,13 +4852,13 @@
         <v>22165</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4926,13 @@
         <v>6475</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4911,10 +4944,10 @@
         <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4923,13 +4956,13 @@
         <v>8506</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4977,13 @@
         <v>3207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4959,10 +4992,10 @@
         <v>6260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>287</v>
@@ -5204,10 +5237,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5216,10 +5249,10 @@
         <v>7280</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>321</v>
@@ -5231,13 +5264,13 @@
         <v>14045</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5285,13 @@
         <v>12872</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5267,10 +5300,10 @@
         <v>7639</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>329</v>
@@ -5282,13 +5315,13 @@
         <v>20511</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5336,13 @@
         <v>5943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -5318,13 +5351,13 @@
         <v>4697</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -5333,13 +5366,13 @@
         <v>10640</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5387,13 @@
         <v>8585</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5369,13 +5402,13 @@
         <v>10904</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -5384,13 +5417,13 @@
         <v>19489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5438,13 @@
         <v>63024</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -5420,13 +5453,13 @@
         <v>67922</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
         <v>195</v>
@@ -5435,13 +5468,13 @@
         <v>130946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,7 +5530,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5509,13 +5542,13 @@
         <v>5327</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5524,13 +5557,13 @@
         <v>6692</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5539,13 +5572,13 @@
         <v>12020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>360</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5593,13 @@
         <v>5171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -5575,13 +5608,13 @@
         <v>6107</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -5590,13 +5623,13 @@
         <v>11278</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5644,13 @@
         <v>10283</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -5626,13 +5659,13 @@
         <v>9090</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -5641,13 +5674,13 @@
         <v>19372</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5695,13 @@
         <v>6340</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5677,13 +5710,13 @@
         <v>7225</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -5692,13 +5725,13 @@
         <v>13565</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>385</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5746,13 @@
         <v>41823</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5728,13 +5761,13 @@
         <v>37411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M26" s="7">
         <v>124</v>
@@ -5743,13 +5776,13 @@
         <v>79234</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,7 +5838,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5817,13 +5850,13 @@
         <v>6336</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -5832,13 +5865,13 @@
         <v>6326</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>321</v>
+        <v>406</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -5847,13 +5880,13 @@
         <v>12662</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5901,13 @@
         <v>8700</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -5883,13 +5916,13 @@
         <v>11758</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -5898,13 +5931,13 @@
         <v>20458</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>411</v>
+        <v>280</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5952,13 @@
         <v>10004</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>144</v>
+        <v>419</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -5934,13 +5967,13 @@
         <v>6260</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>135</v>
+        <v>421</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -5949,13 +5982,13 @@
         <v>16264</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +6003,13 @@
         <v>10483</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -5985,13 +6018,13 @@
         <v>13026</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>307</v>
+        <v>428</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -6000,13 +6033,13 @@
         <v>23509</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6054,13 @@
         <v>57606</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="H32" s="7">
         <v>70</v>
@@ -6036,13 +6069,13 @@
         <v>53958</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="M32" s="7">
         <v>150</v>
@@ -6051,13 +6084,13 @@
         <v>111564</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6158,13 @@
         <v>24904</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="H34" s="7">
         <v>33</v>
@@ -6140,13 +6173,13 @@
         <v>23089</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>436</v>
+        <v>113</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M34" s="7">
         <v>69</v>
@@ -6155,13 +6188,13 @@
         <v>47992</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>439</v>
+        <v>102</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6209,13 @@
         <v>29951</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="H35" s="7">
         <v>45</v>
@@ -6191,13 +6224,13 @@
         <v>31763</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M35" s="7">
         <v>90</v>
@@ -6206,13 +6239,13 @@
         <v>61714</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6260,13 @@
         <v>32633</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H36" s="7">
         <v>37</v>
@@ -6242,13 +6275,13 @@
         <v>26398</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="M36" s="7">
         <v>85</v>
@@ -6257,13 +6290,13 @@
         <v>59032</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6311,13 @@
         <v>35890</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="H37" s="7">
         <v>54</v>
@@ -6293,13 +6326,13 @@
         <v>38118</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="M37" s="7">
         <v>107</v>
@@ -6308,13 +6341,13 @@
         <v>74009</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>15</v>
+        <v>470</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6362,13 @@
         <v>207863</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="H38" s="7">
         <v>288</v>
@@ -6344,13 +6377,13 @@
         <v>202550</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="M38" s="7">
         <v>588</v>
@@ -6359,13 +6392,13 @@
         <v>410413</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,7 +6454,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6442,7 +6475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE39E9B8-1025-415C-8892-0819650B59A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490D978A-C1BE-4332-A10D-3B087F51D728}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6459,7 +6492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6566,13 +6599,13 @@
         <v>2679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>483</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6581,13 +6614,13 @@
         <v>1023</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>439</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6596,13 +6629,13 @@
         <v>3702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>475</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6650,13 @@
         <v>1390</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6632,13 +6665,13 @@
         <v>804</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6647,13 +6680,13 @@
         <v>2194</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>482</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,7 +6707,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6683,13 +6716,13 @@
         <v>1023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>439</v>
+        <v>102</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6698,13 +6731,13 @@
         <v>1023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6752,13 @@
         <v>1596</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6740,7 +6773,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6749,13 +6782,13 @@
         <v>1596</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,13 +6803,13 @@
         <v>8649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -6785,13 +6818,13 @@
         <v>11076</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -6800,13 +6833,13 @@
         <v>19725</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,13 +6907,13 @@
         <v>3712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -6889,13 +6922,13 @@
         <v>3347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -6904,13 +6937,13 @@
         <v>7059</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>388</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6958,13 @@
         <v>5311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6940,13 +6973,13 @@
         <v>4084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>322</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -6955,13 +6988,13 @@
         <v>9395</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>521</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>512</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,13 +7009,13 @@
         <v>3583</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>514</v>
+        <v>286</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>182</v>
+        <v>523</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6991,13 +7024,13 @@
         <v>2498</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>516</v>
+        <v>44</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>517</v>
+        <v>112</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -7006,13 +7039,13 @@
         <v>6081</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,13 +7060,13 @@
         <v>5019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -7042,13 +7075,13 @@
         <v>6870</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>530</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -7057,13 +7090,13 @@
         <v>11888</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,13 +7111,13 @@
         <v>41689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -7093,13 +7126,13 @@
         <v>40115</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="M14" s="7">
         <v>109</v>
@@ -7108,13 +7141,13 @@
         <v>81804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7215,13 @@
         <v>5242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7197,13 +7230,13 @@
         <v>2050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>548</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7212,13 +7245,13 @@
         <v>7292</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7266,13 @@
         <v>5525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>546</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -7248,13 +7281,13 @@
         <v>11368</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -7263,13 +7296,13 @@
         <v>16893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>143</v>
+        <v>558</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,13 +7317,13 @@
         <v>10996</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -7299,13 +7332,13 @@
         <v>7841</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>51</v>
+        <v>563</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>65</v>
+        <v>564</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -7314,13 +7347,13 @@
         <v>18837</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>557</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,13 +7368,13 @@
         <v>9782</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>190</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -7350,13 +7383,13 @@
         <v>10471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>559</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>452</v>
+        <v>569</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -7365,13 +7398,13 @@
         <v>20253</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>563</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7419,13 @@
         <v>74763</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
@@ -7401,13 +7434,13 @@
         <v>74099</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="M20" s="7">
         <v>219</v>
@@ -7416,13 +7449,13 @@
         <v>148862</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7478,7 +7511,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7490,13 +7523,13 @@
         <v>4211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7505,13 +7538,13 @@
         <v>1705</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -7520,13 +7553,13 @@
         <v>5916</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7574,13 @@
         <v>8292</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>181</v>
+        <v>590</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -7556,13 +7589,13 @@
         <v>5082</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -7571,13 +7604,13 @@
         <v>13374</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>539</v>
+        <v>337</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7625,13 @@
         <v>5926</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>408</v>
+        <v>51</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7607,13 +7640,13 @@
         <v>3123</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>590</v>
+        <v>61</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -7622,13 +7655,13 @@
         <v>9048</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>505</v>
+        <v>388</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>592</v>
+        <v>405</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7676,13 @@
         <v>9730</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>593</v>
+        <v>321</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -7658,13 +7691,13 @@
         <v>4533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -7673,13 +7706,13 @@
         <v>14263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>597</v>
+        <v>531</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7727,13 @@
         <v>49197</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="H26" s="7">
         <v>89</v>
@@ -7709,13 +7742,13 @@
         <v>57267</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>570</v>
+        <v>611</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -7724,13 +7757,13 @@
         <v>106464</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,7 +7819,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7798,13 +7831,13 @@
         <v>5132</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>227</v>
+        <v>616</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>106</v>
+        <v>617</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -7813,13 +7846,13 @@
         <v>5455</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>610</v>
+        <v>347</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -7828,13 +7861,13 @@
         <v>10588</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7882,13 @@
         <v>4230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>215</v>
+        <v>624</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -7864,13 +7897,13 @@
         <v>4789</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>63</v>
+        <v>626</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>614</v>
+        <v>547</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>615</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -7879,13 +7912,13 @@
         <v>9020</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>616</v>
+        <v>217</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7933,13 @@
         <v>12239</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>443</v>
+        <v>530</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>322</v>
+        <v>628</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -7915,13 +7948,13 @@
         <v>10817</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -7930,13 +7963,13 @@
         <v>23056</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7984,13 @@
         <v>15252</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="H31" s="7">
         <v>23</v>
@@ -7966,13 +7999,13 @@
         <v>18015</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>239</v>
+        <v>638</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -7981,13 +8014,13 @@
         <v>33267</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +8035,13 @@
         <v>64576</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="H32" s="7">
         <v>90</v>
@@ -8017,13 +8050,13 @@
         <v>68515</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="M32" s="7">
         <v>176</v>
@@ -8032,13 +8065,13 @@
         <v>133091</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8139,13 @@
         <v>20976</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>552</v>
+        <v>652</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="H34" s="7">
         <v>19</v>
@@ -8121,13 +8154,13 @@
         <v>13581</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="M34" s="7">
         <v>48</v>
@@ -8136,13 +8169,13 @@
         <v>34556</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,13 +8190,13 @@
         <v>24748</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>649</v>
+        <v>470</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -8172,13 +8205,13 @@
         <v>26128</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>651</v>
+        <v>595</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>435</v>
+        <v>662</v>
       </c>
       <c r="M35" s="7">
         <v>72</v>
@@ -8187,13 +8220,13 @@
         <v>50876</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>544</v>
+        <v>663</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>360</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,13 +8241,13 @@
         <v>32743</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>654</v>
+        <v>422</v>
       </c>
       <c r="H36" s="7">
         <v>37</v>
@@ -8223,13 +8256,13 @@
         <v>25302</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>60</v>
+        <v>669</v>
       </c>
       <c r="M36" s="7">
         <v>82</v>
@@ -8238,13 +8271,13 @@
         <v>58045</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>657</v>
+        <v>586</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>658</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8292,13 @@
         <v>41379</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="H37" s="7">
         <v>56</v>
@@ -8274,13 +8307,13 @@
         <v>39889</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="M37" s="7">
         <v>114</v>
@@ -8289,13 +8322,13 @@
         <v>81267</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>665</v>
+        <v>559</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8343,13 @@
         <v>238874</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="H38" s="7">
         <v>359</v>
@@ -8325,13 +8358,13 @@
         <v>251072</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="M38" s="7">
         <v>685</v>
@@ -8340,13 +8373,13 @@
         <v>489946</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8402,7 +8435,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
